--- a/cfgdefine/test5/all_test.xlsx
+++ b/cfgdefine/test5/all_test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="58">
   <si>
     <t>测试表</t>
   </si>
@@ -28,6 +28,9 @@
     <t>floatValue</t>
   </si>
   <si>
+    <t>textValue</t>
+  </si>
+  <si>
     <t>longValue</t>
   </si>
   <si>
@@ -118,6 +121,9 @@
     <t>key-&gt;x,y,z|x,y,z</t>
   </si>
   <si>
+    <t>item_1_desc</t>
+  </si>
+  <si>
     <t>xiong</t>
   </si>
   <si>
@@ -158,6 +164,9 @@
   </si>
   <si>
     <t>Circle,1,15</t>
+  </si>
+  <si>
+    <t>item_2_desc</t>
   </si>
   <si>
     <t>jin</t>
@@ -852,7 +861,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -869,7 +878,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1231,34 +1243,39 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AQ9"/>
+  <dimension ref="A1:AR9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="AN12" sqref="AN12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="3" width="9" style="4"/>
-    <col min="4" max="4" width="10.6666666666667" style="4"/>
-    <col min="5" max="13" width="9" style="4"/>
-    <col min="14" max="14" width="16.3333333333333" style="5" customWidth="1"/>
-    <col min="15" max="25" width="9" style="4"/>
-    <col min="26" max="26" width="17.5555555555556" style="4" customWidth="1"/>
-    <col min="27" max="27" width="18.8888888888889" style="4" customWidth="1"/>
-    <col min="28" max="30" width="9" style="4"/>
-    <col min="31" max="31" width="15.6666666666667" style="4" customWidth="1"/>
-    <col min="32" max="32" width="17.8888888888889" style="4" customWidth="1"/>
-    <col min="33" max="35" width="9" style="4"/>
-    <col min="36" max="36" width="21.8888888888889" style="4" customWidth="1"/>
-    <col min="37" max="37" width="17.8888888888889" style="4" customWidth="1"/>
-    <col min="38" max="38" width="29.7777777777778" style="4" customWidth="1"/>
-    <col min="39" max="39" width="30.7777777777778" style="4" customWidth="1"/>
-    <col min="40" max="40" width="30.8888888888889" style="4" customWidth="1"/>
-    <col min="41" max="41" width="17.6666666666667" style="4" customWidth="1"/>
-    <col min="42" max="42" width="12.7777777777778" style="4" customWidth="1"/>
-    <col min="43" max="43" width="14.7777777777778" style="4" customWidth="1"/>
-    <col min="44" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="2" width="11.7777777777778" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9" style="4"/>
+    <col min="4" max="4" width="11.4444444444444" style="4" customWidth="1"/>
+    <col min="5" max="5" width="10.6666666666667" style="4"/>
+    <col min="6" max="8" width="9" style="4"/>
+    <col min="9" max="9" width="11" style="4" customWidth="1"/>
+    <col min="10" max="14" width="9" style="4"/>
+    <col min="15" max="15" width="16.3333333333333" style="5" customWidth="1"/>
+    <col min="16" max="26" width="9" style="4"/>
+    <col min="27" max="27" width="17.5555555555556" style="4" customWidth="1"/>
+    <col min="28" max="28" width="18.8888888888889" style="4" customWidth="1"/>
+    <col min="29" max="31" width="9" style="4"/>
+    <col min="32" max="32" width="15.6666666666667" style="4" customWidth="1"/>
+    <col min="33" max="33" width="17.8888888888889" style="4" customWidth="1"/>
+    <col min="34" max="36" width="9" style="4"/>
+    <col min="37" max="37" width="21.8888888888889" style="4" customWidth="1"/>
+    <col min="38" max="38" width="17.8888888888889" style="4" customWidth="1"/>
+    <col min="39" max="39" width="29.7777777777778" style="4" customWidth="1"/>
+    <col min="40" max="40" width="30.7777777777778" style="4" customWidth="1"/>
+    <col min="41" max="41" width="30.8888888888889" style="4" customWidth="1"/>
+    <col min="42" max="42" width="17.6666666666667" style="4" customWidth="1"/>
+    <col min="43" max="43" width="12.7777777777778" style="4" customWidth="1"/>
+    <col min="44" max="44" width="14.7777777777778" style="4" customWidth="1"/>
+    <col min="45" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1266,7 +1283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:43">
+    <row r="2" spans="1:44">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1288,85 +1305,85 @@
       <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="6"/>
+      <c r="I2" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="J2" s="6"/>
-      <c r="K2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="M2" s="6"/>
-      <c r="N2" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="N2" s="6"/>
       <c r="O2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="11" t="s">
+      <c r="P2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="12" t="s">
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="13" t="s">
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="13" t="s">
         <v>14</v>
       </c>
+      <c r="Z2" s="13"/>
       <c r="AA2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="AB2" s="14"/>
-      <c r="AC2" s="14"/>
-      <c r="AD2" s="14"/>
-      <c r="AE2" s="15" t="s">
+      <c r="AB2" s="15" t="s">
         <v>16</v>
       </c>
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="15"/>
+      <c r="AE2" s="15"/>
       <c r="AF2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="AG2" s="16"/>
-      <c r="AH2" s="16"/>
-      <c r="AI2" s="16"/>
-      <c r="AJ2" s="17" t="s">
+      <c r="AG2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="AK2" s="17"/>
-      <c r="AL2" s="18" t="s">
+      <c r="AH2" s="17"/>
+      <c r="AI2" s="17"/>
+      <c r="AJ2" s="17"/>
+      <c r="AK2" s="18" t="s">
         <v>19</v>
       </c>
+      <c r="AL2" s="18"/>
       <c r="AM2" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="AN2" s="19"/>
-      <c r="AO2" s="2" t="s">
+      <c r="AN2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="AP2" s="20" t="s">
+      <c r="AO2" s="20"/>
+      <c r="AP2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AQ2" s="20"/>
+      <c r="AQ2" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="AR2" s="21"/>
     </row>
-    <row r="3" spans="8:40">
-      <c r="H3" s="4" t="s">
-        <v>23</v>
-      </c>
+    <row r="3" spans="9:41">
       <c r="I3" s="4" t="s">
         <v>24</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="4" t="s">
-        <v>23</v>
+      <c r="K3" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="P3" s="4" t="s">
         <v>24</v>
@@ -1375,7 +1392,7 @@
         <v>25</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="S3" s="4" t="s">
         <v>24</v>
@@ -1384,7 +1401,7 @@
         <v>25</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="V3" s="4" t="s">
         <v>24</v>
@@ -1395,7 +1412,7 @@
       <c r="X3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Z3" s="4" t="s">
+      <c r="Y3" s="4" t="s">
         <v>27</v>
       </c>
       <c r="AA3" s="4" t="s">
@@ -1405,7 +1422,7 @@
         <v>29</v>
       </c>
       <c r="AC3" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AD3" s="4" t="s">
         <v>29</v>
@@ -1414,10 +1431,10 @@
         <v>30</v>
       </c>
       <c r="AF3" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="AG3" s="4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AH3" s="4" t="s">
         <v>24</v>
@@ -1426,10 +1443,10 @@
         <v>25</v>
       </c>
       <c r="AJ3" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="AK3" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AL3" s="4" t="s">
         <v>32</v>
@@ -1438,10 +1455,13 @@
         <v>33</v>
       </c>
       <c r="AN3" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="AO3" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:43">
+    <row r="4" s="1" customFormat="1" spans="1:44">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1451,151 +1471,154 @@
       <c r="C4" s="1">
         <v>1.1</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="1">
         <v>334939434</v>
       </c>
-      <c r="E4" s="1" t="b">
+      <c r="F4" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="1">
+        <v>36</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="1">
         <v>1</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>2</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>3</v>
       </c>
-      <c r="K4" s="1">
+      <c r="L4" s="1">
         <v>10</v>
       </c>
-      <c r="L4" s="1">
+      <c r="M4" s="1">
         <v>20</v>
       </c>
-      <c r="M4" s="1">
+      <c r="N4" s="1">
         <v>30</v>
       </c>
-      <c r="N4" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="O4" s="1">
+      <c r="O4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" s="1">
         <v>1</v>
       </c>
-      <c r="P4" s="1">
+      <c r="Q4" s="1">
         <v>2</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="R4" s="1">
         <v>3</v>
       </c>
-      <c r="R4" s="1">
+      <c r="S4" s="1">
         <v>4</v>
       </c>
-      <c r="S4" s="1">
+      <c r="T4" s="1">
         <v>5</v>
       </c>
-      <c r="T4" s="1">
+      <c r="U4" s="1">
         <v>6</v>
       </c>
-      <c r="U4" s="1">
+      <c r="V4" s="1">
         <v>1</v>
       </c>
-      <c r="V4" s="1">
+      <c r="W4" s="1">
         <v>2</v>
       </c>
-      <c r="W4" s="1">
+      <c r="X4" s="1">
         <v>3</v>
       </c>
-      <c r="X4" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="Y4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA4" s="1">
+        <v>40</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB4" s="1">
         <v>1</v>
       </c>
-      <c r="AB4" s="1">
+      <c r="AC4" s="1">
         <v>2</v>
       </c>
-      <c r="AC4" s="1">
+      <c r="AD4" s="1">
         <v>3</v>
       </c>
-      <c r="AD4" s="1">
+      <c r="AE4" s="1">
         <v>4</v>
       </c>
-      <c r="AE4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF4" s="1">
+      <c r="AF4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG4" s="1">
         <v>1</v>
       </c>
-      <c r="AG4" s="1">
+      <c r="AH4" s="1">
         <v>101</v>
       </c>
-      <c r="AH4" s="1">
+      <c r="AI4" s="1">
         <v>102</v>
       </c>
-      <c r="AI4" s="1">
+      <c r="AJ4" s="1">
         <v>103</v>
       </c>
-      <c r="AJ4" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="AK4" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AL4" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AM4" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AN4" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AO4" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AP4" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AQ4" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="AR4" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="5" spans="21:35">
-      <c r="U5" s="4">
+    <row r="5" spans="22:36">
+      <c r="V5" s="4">
         <v>4</v>
       </c>
-      <c r="V5" s="4">
+      <c r="W5" s="4">
         <v>5</v>
       </c>
-      <c r="W5" s="4">
+      <c r="X5" s="4">
         <v>6</v>
       </c>
-      <c r="AF5" s="4">
+      <c r="AG5" s="4">
         <v>2</v>
       </c>
-      <c r="AG5" s="4">
+      <c r="AH5" s="4">
         <v>201</v>
       </c>
-      <c r="AH5" s="4">
+      <c r="AI5" s="4">
         <v>202</v>
       </c>
-      <c r="AI5" s="4">
+      <c r="AJ5" s="4">
         <v>203</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:42">
+    <row r="6" s="2" customFormat="1" spans="1:43">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -1605,126 +1628,123 @@
       <c r="C6" s="2">
         <v>2.2</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="2">
         <v>4040493</v>
       </c>
-      <c r="E6" s="2" t="b">
+      <c r="F6" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="2">
+        <v>11</v>
+      </c>
+      <c r="J6" s="2">
+        <v>22</v>
+      </c>
+      <c r="K6" s="2">
+        <v>33</v>
+      </c>
+      <c r="L6" s="2">
+        <v>100</v>
+      </c>
+      <c r="M6" s="2">
+        <v>200</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" s="2">
+        <v>11</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>22</v>
+      </c>
+      <c r="R6" s="2">
+        <v>33</v>
+      </c>
+      <c r="V6" s="2">
+        <v>11</v>
+      </c>
+      <c r="W6" s="2">
+        <v>22</v>
+      </c>
+      <c r="X6" s="2">
+        <v>33</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>2</v>
+      </c>
+      <c r="AF6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ6" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AQ6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="2">
-        <v>11</v>
-      </c>
-      <c r="I6" s="2">
-        <v>22</v>
-      </c>
-      <c r="J6" s="2">
-        <v>33</v>
-      </c>
-      <c r="K6" s="2">
-        <v>100</v>
-      </c>
-      <c r="L6" s="2">
-        <v>200</v>
-      </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="O6" s="2">
-        <v>11</v>
-      </c>
-      <c r="P6" s="2">
-        <v>22</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>33</v>
-      </c>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2">
-        <v>11</v>
-      </c>
-      <c r="V6" s="2">
-        <v>22</v>
-      </c>
-      <c r="W6" s="2">
-        <v>33</v>
-      </c>
-      <c r="X6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA6" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="2">
-        <v>2</v>
-      </c>
-      <c r="AE6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF6" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG6" s="2">
-        <v>101</v>
-      </c>
-      <c r="AH6" s="2">
-        <v>102</v>
-      </c>
-      <c r="AI6" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AM6" s="2" t="s">
+    </row>
+    <row r="7" spans="22:24">
+      <c r="V7" s="4">
         <v>44</v>
       </c>
-      <c r="AN6" s="2"/>
-      <c r="AO6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AP6" s="2" t="s">
-        <v>46</v>
+      <c r="W7" s="4">
+        <v>55</v>
+      </c>
+      <c r="X7" s="4">
+        <v>66</v>
       </c>
     </row>
-    <row r="7" spans="21:23">
-      <c r="U7" s="4">
-        <v>44</v>
-      </c>
-      <c r="V7" s="4">
-        <v>55</v>
-      </c>
-      <c r="W7" s="4">
-        <v>66</v>
+    <row r="8" spans="22:24">
+      <c r="V8" s="4">
+        <v>77</v>
+      </c>
+      <c r="W8" s="4">
+        <v>88</v>
+      </c>
+      <c r="X8" s="4">
+        <v>99</v>
       </c>
     </row>
-    <row r="8" spans="21:23">
-      <c r="U8" s="4">
-        <v>77</v>
-      </c>
-      <c r="V8" s="4">
-        <v>88</v>
-      </c>
-      <c r="W8" s="4">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" s="3" customFormat="1" spans="1:41">
+    <row r="9" s="3" customFormat="1" spans="1:42">
       <c r="A9" s="3">
         <v>3</v>
       </c>
@@ -1734,50 +1754,47 @@
       <c r="C9" s="3">
         <v>3.3</v>
       </c>
-      <c r="D9" s="3">
+      <c r="E9" s="3">
         <v>893838</v>
       </c>
-      <c r="E9" s="3" t="b">
+      <c r="F9" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="G9" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" s="3">
+        <v>56</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" s="3">
         <v>111</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>222</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>333</v>
       </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="10"/>
-      <c r="AM9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AO9" s="1" t="s">
-        <v>46</v>
+      <c r="O9" s="11"/>
+      <c r="AN9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP9" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="O2:T2"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="P2:U2"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="AG2:AJ2"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="AN2:AO2"/>
+    <mergeCell ref="AQ2:AR2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/cfgdefine/test5/all_test.xlsx
+++ b/cfgdefine/test5/all_test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="65">
   <si>
     <t>测试表</t>
   </si>
@@ -34,12 +34,18 @@
     <t>longValue</t>
   </si>
   <si>
+    <t>timeValue</t>
+  </si>
+  <si>
     <t>boolValue</t>
   </si>
   <si>
     <t>stringValue</t>
   </si>
   <si>
+    <t>pathValid</t>
+  </si>
+  <si>
     <t>enumValue</t>
   </si>
   <si>
@@ -124,6 +130,9 @@
     <t>item_1_desc</t>
   </si>
   <si>
+    <t>2023-10-01 10:20:10</t>
+  </si>
+  <si>
     <t>xiong</t>
   </si>
   <si>
@@ -169,9 +178,15 @@
     <t>item_2_desc</t>
   </si>
   <si>
+    <t>2023-10-01 10:20:20</t>
+  </si>
+  <si>
     <t>jin</t>
   </si>
   <si>
+    <t>cfgdefine/resource/1.png</t>
+  </si>
+  <si>
     <t>困难</t>
   </si>
   <si>
@@ -184,7 +199,13 @@
     <t>1-&gt;2</t>
   </si>
   <si>
+    <t>2023-10-01 10:20:40</t>
+  </si>
+  <si>
     <t>heihei</t>
+  </si>
+  <si>
+    <t>cfgdefine/resource/2.png</t>
   </si>
   <si>
     <t>简单</t>
@@ -861,7 +882,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -878,6 +899,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -887,6 +914,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -894,9 +924,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -922,6 +949,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1243,10 +1279,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AR9"/>
+  <dimension ref="A1:AT9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1254,28 +1290,32 @@
     <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="2" width="11.7777777777778" style="4" customWidth="1"/>
     <col min="3" max="3" width="9" style="4"/>
-    <col min="4" max="4" width="11.4444444444444" style="4" customWidth="1"/>
+    <col min="4" max="4" width="16.1111111111111" style="4" customWidth="1"/>
     <col min="5" max="5" width="10.6666666666667" style="4"/>
-    <col min="6" max="8" width="9" style="4"/>
-    <col min="9" max="9" width="11" style="4" customWidth="1"/>
-    <col min="10" max="14" width="9" style="4"/>
-    <col min="15" max="15" width="16.3333333333333" style="5" customWidth="1"/>
-    <col min="16" max="26" width="9" style="4"/>
-    <col min="27" max="27" width="17.5555555555556" style="4" customWidth="1"/>
-    <col min="28" max="28" width="18.8888888888889" style="4" customWidth="1"/>
-    <col min="29" max="31" width="9" style="4"/>
-    <col min="32" max="32" width="15.6666666666667" style="4" customWidth="1"/>
-    <col min="33" max="33" width="17.8888888888889" style="4" customWidth="1"/>
-    <col min="34" max="36" width="9" style="4"/>
-    <col min="37" max="37" width="21.8888888888889" style="4" customWidth="1"/>
-    <col min="38" max="38" width="17.8888888888889" style="4" customWidth="1"/>
-    <col min="39" max="39" width="29.7777777777778" style="4" customWidth="1"/>
-    <col min="40" max="40" width="30.7777777777778" style="4" customWidth="1"/>
-    <col min="41" max="41" width="30.8888888888889" style="4" customWidth="1"/>
-    <col min="42" max="42" width="17.6666666666667" style="4" customWidth="1"/>
-    <col min="43" max="43" width="12.7777777777778" style="4" customWidth="1"/>
-    <col min="44" max="44" width="14.7777777777778" style="4" customWidth="1"/>
-    <col min="45" max="16384" width="9" style="4"/>
+    <col min="6" max="6" width="28.7777777777778" style="4" customWidth="1"/>
+    <col min="7" max="7" width="9" style="4"/>
+    <col min="8" max="8" width="13.7777777777778" style="4" customWidth="1"/>
+    <col min="9" max="9" width="20.1111111111111" style="4" customWidth="1"/>
+    <col min="10" max="10" width="9" style="4"/>
+    <col min="11" max="11" width="11" style="4" customWidth="1"/>
+    <col min="12" max="16" width="9" style="4"/>
+    <col min="17" max="17" width="16.3333333333333" style="5" customWidth="1"/>
+    <col min="18" max="28" width="9" style="4"/>
+    <col min="29" max="29" width="17.5555555555556" style="4" customWidth="1"/>
+    <col min="30" max="30" width="18.8888888888889" style="4" customWidth="1"/>
+    <col min="31" max="33" width="9" style="4"/>
+    <col min="34" max="34" width="15.6666666666667" style="4" customWidth="1"/>
+    <col min="35" max="35" width="17.8888888888889" style="4" customWidth="1"/>
+    <col min="36" max="38" width="9" style="4"/>
+    <col min="39" max="39" width="21.8888888888889" style="4" customWidth="1"/>
+    <col min="40" max="40" width="17.8888888888889" style="4" customWidth="1"/>
+    <col min="41" max="41" width="29.7777777777778" style="4" customWidth="1"/>
+    <col min="42" max="42" width="30.7777777777778" style="4" customWidth="1"/>
+    <col min="43" max="43" width="30.8888888888889" style="4" customWidth="1"/>
+    <col min="44" max="44" width="17.6666666666667" style="4" customWidth="1"/>
+    <col min="45" max="45" width="12.7777777777778" style="4" customWidth="1"/>
+    <col min="46" max="46" width="14.7777777777778" style="4" customWidth="1"/>
+    <col min="47" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1283,7 +1323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:44">
+    <row r="2" spans="1:46">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1308,106 +1348,106 @@
       <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6" t="s">
+      <c r="J2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="7" t="s">
+      <c r="K2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="12" t="s">
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="13" t="s">
+      <c r="R2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="14" t="s">
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="AB2" s="15" t="s">
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="AC2" s="15"/>
-      <c r="AD2" s="15"/>
-      <c r="AE2" s="15"/>
-      <c r="AF2" s="16" t="s">
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="AG2" s="17" t="s">
+      <c r="AD2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="AH2" s="17"/>
-      <c r="AI2" s="17"/>
-      <c r="AJ2" s="17"/>
-      <c r="AK2" s="18" t="s">
+      <c r="AE2" s="17"/>
+      <c r="AF2" s="17"/>
+      <c r="AG2" s="17"/>
+      <c r="AH2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="AL2" s="18"/>
-      <c r="AM2" s="19" t="s">
+      <c r="AI2" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="AN2" s="20" t="s">
+      <c r="AJ2" s="19"/>
+      <c r="AK2" s="19"/>
+      <c r="AL2" s="19"/>
+      <c r="AM2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="AO2" s="20"/>
-      <c r="AP2" s="2" t="s">
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="AQ2" s="21" t="s">
+      <c r="AP2" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="AR2" s="21"/>
+      <c r="AQ2" s="22"/>
+      <c r="AR2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AS2" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="AT2" s="23"/>
     </row>
-    <row r="3" spans="9:41">
-      <c r="I3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>25</v>
-      </c>
+    <row r="3" spans="11:43">
       <c r="K3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>25</v>
+      <c r="L3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="R3" s="4" t="s">
         <v>26</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="U3" s="4" t="s">
         <v>26</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="W3" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="X3" s="4" t="s">
         <v>26</v>
@@ -1415,53 +1455,59 @@
       <c r="Y3" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="Z3" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="AA3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB3" s="4" t="s">
         <v>29</v>
       </c>
       <c r="AC3" s="4" t="s">
         <v>30</v>
       </c>
       <c r="AD3" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AE3" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AF3" s="4" t="s">
         <v>31</v>
       </c>
       <c r="AG3" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AH3" s="4" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="AI3" s="4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="AJ3" s="4" t="s">
         <v>26</v>
       </c>
       <c r="AK3" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AL3" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AM3" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AN3" s="4" t="s">
         <v>34</v>
       </c>
       <c r="AO3" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="AP3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ3" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:44">
+    <row r="4" s="1" customFormat="1" spans="1:46">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1472,153 +1518,156 @@
         <v>1.1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E4" s="1">
         <v>334939434</v>
       </c>
-      <c r="F4" s="1" t="b">
+      <c r="F4" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="1">
+        <v>39</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="1">
         <v>1</v>
       </c>
-      <c r="J4" s="1">
+      <c r="L4" s="1">
         <v>2</v>
       </c>
-      <c r="K4" s="1">
+      <c r="M4" s="1">
         <v>3</v>
       </c>
-      <c r="L4" s="1">
+      <c r="N4" s="1">
         <v>10</v>
       </c>
-      <c r="M4" s="1">
+      <c r="O4" s="1">
         <v>20</v>
       </c>
-      <c r="N4" s="1">
+      <c r="P4" s="1">
         <v>30</v>
       </c>
-      <c r="O4" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="P4" s="1">
+      <c r="Q4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="R4" s="1">
         <v>1</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="S4" s="1">
         <v>2</v>
       </c>
-      <c r="R4" s="1">
+      <c r="T4" s="1">
         <v>3</v>
       </c>
-      <c r="S4" s="1">
+      <c r="U4" s="1">
         <v>4</v>
       </c>
-      <c r="T4" s="1">
+      <c r="V4" s="1">
         <v>5</v>
       </c>
-      <c r="U4" s="1">
+      <c r="W4" s="1">
         <v>6</v>
       </c>
-      <c r="V4" s="1">
+      <c r="X4" s="1">
         <v>1</v>
       </c>
-      <c r="W4" s="1">
+      <c r="Y4" s="1">
         <v>2</v>
       </c>
-      <c r="X4" s="1">
+      <c r="Z4" s="1">
         <v>3</v>
       </c>
-      <c r="Y4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="AA4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB4" s="1">
+        <v>42</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD4" s="1">
         <v>1</v>
       </c>
-      <c r="AC4" s="1">
+      <c r="AE4" s="1">
         <v>2</v>
       </c>
-      <c r="AD4" s="1">
+      <c r="AF4" s="1">
         <v>3</v>
       </c>
-      <c r="AE4" s="1">
+      <c r="AG4" s="1">
         <v>4</v>
       </c>
-      <c r="AF4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG4" s="1">
+      <c r="AH4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI4" s="1">
         <v>1</v>
       </c>
-      <c r="AH4" s="1">
+      <c r="AJ4" s="1">
         <v>101</v>
       </c>
-      <c r="AI4" s="1">
+      <c r="AK4" s="1">
         <v>102</v>
       </c>
-      <c r="AJ4" s="1">
+      <c r="AL4" s="1">
         <v>103</v>
       </c>
-      <c r="AK4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AL4" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="AM4" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AN4" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AO4" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP4" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AQ4" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AR4" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="AS4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT4" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="5" spans="22:36">
-      <c r="V5" s="4">
+    <row r="5" spans="24:38">
+      <c r="X5" s="4">
         <v>4</v>
       </c>
-      <c r="W5" s="4">
+      <c r="Y5" s="4">
         <v>5</v>
       </c>
-      <c r="X5" s="4">
+      <c r="Z5" s="4">
         <v>6</v>
       </c>
-      <c r="AG5" s="4">
+      <c r="AI5" s="4">
         <v>2</v>
       </c>
-      <c r="AH5" s="4">
+      <c r="AJ5" s="4">
         <v>201</v>
       </c>
-      <c r="AI5" s="4">
+      <c r="AK5" s="4">
         <v>202</v>
       </c>
-      <c r="AJ5" s="4">
+      <c r="AL5" s="4">
         <v>203</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:43">
+    <row r="6" s="2" customFormat="1" spans="1:45">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -1629,122 +1678,128 @@
         <v>2.2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E6" s="2">
         <v>4040493</v>
       </c>
-      <c r="F6" s="2" t="b">
+      <c r="F6" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="H6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I6" s="2">
+        <v>55</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" s="2">
         <v>11</v>
       </c>
-      <c r="J6" s="2">
+      <c r="L6" s="2">
         <v>22</v>
       </c>
-      <c r="K6" s="2">
+      <c r="M6" s="2">
         <v>33</v>
       </c>
-      <c r="L6" s="2">
+      <c r="N6" s="2">
         <v>100</v>
       </c>
-      <c r="M6" s="2">
+      <c r="O6" s="2">
         <v>200</v>
       </c>
-      <c r="O6" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="P6" s="2">
+      <c r="Q6" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="R6" s="2">
         <v>11</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="S6" s="2">
         <v>22</v>
       </c>
-      <c r="R6" s="2">
+      <c r="T6" s="2">
         <v>33</v>
       </c>
-      <c r="V6" s="2">
+      <c r="X6" s="2">
         <v>11</v>
       </c>
-      <c r="W6" s="2">
+      <c r="Y6" s="2">
         <v>22</v>
       </c>
-      <c r="X6" s="2">
+      <c r="Z6" s="2">
         <v>33</v>
       </c>
-      <c r="Y6" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="AA6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB6" s="2">
+        <v>59</v>
+      </c>
+      <c r="AC6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD6" s="2">
         <v>1</v>
       </c>
-      <c r="AC6" s="2">
+      <c r="AE6" s="2">
         <v>2</v>
       </c>
-      <c r="AF6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG6" s="2">
+      <c r="AH6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI6" s="2">
         <v>1</v>
       </c>
-      <c r="AH6" s="2">
+      <c r="AJ6" s="2">
         <v>101</v>
       </c>
-      <c r="AI6" s="2">
+      <c r="AK6" s="2">
         <v>102</v>
       </c>
-      <c r="AJ6" s="2">
+      <c r="AL6" s="2">
         <v>103</v>
       </c>
-      <c r="AK6" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="AM6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AN6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO6" s="2" t="s">
         <v>46</v>
       </c>
       <c r="AP6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AQ6" s="2" t="s">
-        <v>48</v>
+      <c r="AR6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS6" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="7" spans="22:24">
-      <c r="V7" s="4">
+    <row r="7" spans="24:26">
+      <c r="X7" s="4">
         <v>44</v>
       </c>
-      <c r="W7" s="4">
+      <c r="Y7" s="4">
         <v>55</v>
       </c>
-      <c r="X7" s="4">
+      <c r="Z7" s="4">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="22:24">
-      <c r="V8" s="4">
+    <row r="8" spans="24:26">
+      <c r="X8" s="4">
         <v>77</v>
       </c>
-      <c r="W8" s="4">
+      <c r="Y8" s="4">
         <v>88</v>
       </c>
-      <c r="X8" s="4">
+      <c r="Z8" s="4">
         <v>99</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" spans="1:42">
+    <row r="9" s="3" customFormat="1" spans="1:44">
       <c r="A9" s="3">
         <v>3</v>
       </c>
@@ -1757,44 +1812,50 @@
       <c r="E9" s="3">
         <v>893838</v>
       </c>
-      <c r="F9" s="3" t="b">
+      <c r="F9" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="H9" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I9" s="3">
+        <v>62</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K9" s="3">
         <v>111</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>222</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>333</v>
       </c>
-      <c r="O9" s="11"/>
-      <c r="AN9" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AP9" s="1" t="s">
-        <v>48</v>
+      <c r="Q9" s="14"/>
+      <c r="AP9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR9" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="P2:U2"/>
-    <mergeCell ref="V2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="AG2:AJ2"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="AN2:AO2"/>
-    <mergeCell ref="AQ2:AR2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="R2:W2"/>
+    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="AS2:AT2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/cfgdefine/test5/all_test.xlsx
+++ b/cfgdefine/test5/all_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="66">
   <si>
     <t>测试表</t>
   </si>
@@ -197,6 +197,9 @@
   </si>
   <si>
     <t>1-&gt;2</t>
+  </si>
+  <si>
+    <t>##这是一行注释</t>
   </si>
   <si>
     <t>2023-10-01 10:20:40</t>
@@ -1279,15 +1282,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AT9"/>
+  <dimension ref="A1:AT10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
+    <col min="1" max="1" width="23.1111111111111" style="4" customWidth="1"/>
     <col min="2" max="2" width="11.7777777777778" style="4" customWidth="1"/>
     <col min="3" max="3" width="9" style="4"/>
     <col min="4" max="4" width="16.1111111111111" style="4" customWidth="1"/>
@@ -1799,48 +1802,70 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" spans="1:44">
-      <c r="A9" s="3">
+    <row r="9" customFormat="1" spans="1:44">
+      <c r="A9" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="Q9" s="5"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AP9" s="4"/>
+      <c r="AR9" s="4"/>
+    </row>
+    <row r="10" s="3" customFormat="1" spans="1:44">
+      <c r="A10" s="3">
         <v>3</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B10" s="3">
         <v>4</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C10" s="3">
         <v>3.3</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E10" s="3">
         <v>893838</v>
       </c>
-      <c r="F9" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="G9" s="3" t="b">
+      <c r="F10" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I9" s="2" t="s">
+      <c r="H10" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="I10" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="K9" s="3">
+      <c r="J10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K10" s="3">
         <v>111</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L10" s="3">
         <v>222</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M10" s="3">
         <v>333</v>
       </c>
-      <c r="Q9" s="14"/>
-      <c r="AP9" s="3" t="s">
+      <c r="Q10" s="14"/>
+      <c r="AP10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AR9" s="1" t="s">
+      <c r="AR10" s="1" t="s">
         <v>51</v>
       </c>
     </row>
